--- a/OceanCarrierMapping.xlsx
+++ b/OceanCarrierMapping.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gautham.sekar\OneDrive - Blume Global\Desktop\RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="8_{96306A13-BCDF-4B85-9A38-0B647743F3C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{58982EFB-AB30-4651-ACBB-30BB239B5B2A}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="6_{64AACE5F-02BE-4446-AC9A-F29D54FB3BE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7A48E4CB-BF72-4824-8C5A-EF4C1ED6A3BF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5250" windowHeight="6930" activeTab="4" xr2:uid="{5FCC34BF-F1BC-4EE9-BAB9-DF61CE85C331}"/>
+    <workbookView xWindow="5730" yWindow="1420" windowWidth="10410" windowHeight="5940" firstSheet="2" activeTab="11" xr2:uid="{5FCC34BF-F1BC-4EE9-BAB9-DF61CE85C331}"/>
   </bookViews>
   <sheets>
     <sheet name="APL" sheetId="1" r:id="rId1"/>
     <sheet name="CMA-CGM" sheetId="2" r:id="rId2"/>
     <sheet name="Cosco" sheetId="3" r:id="rId3"/>
-    <sheet name="MSC" sheetId="4" r:id="rId4"/>
-    <sheet name="PIL" sheetId="5" r:id="rId5"/>
+    <sheet name="PIL" sheetId="5" r:id="rId4"/>
+    <sheet name="MSC" sheetId="4" r:id="rId5"/>
     <sheet name="YM" sheetId="6" r:id="rId6"/>
+    <sheet name="Crowley" sheetId="7" r:id="rId7"/>
+    <sheet name="Matson" sheetId="10" r:id="rId8"/>
+    <sheet name="WanHai" sheetId="13" r:id="rId9"/>
+    <sheet name="USLines" sheetId="12" r:id="rId10"/>
+    <sheet name="Maersk" sheetId="14" r:id="rId11"/>
+    <sheet name="OOCL" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,6 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="610">
   <si>
     <t>Fields in the website</t>
   </si>
@@ -1103,13 +1110,775 @@
   </si>
   <si>
     <t>IE</t>
+  </si>
+  <si>
+    <t>CMCU4538155</t>
+  </si>
+  <si>
+    <t>PARADERO</t>
+  </si>
+  <si>
+    <t>023N</t>
+  </si>
+  <si>
+    <t>T150016029</t>
+  </si>
+  <si>
+    <t>COSN9M367805</t>
+  </si>
+  <si>
+    <t>CMCU4711208</t>
+  </si>
+  <si>
+    <t>EL COQUI</t>
+  </si>
+  <si>
+    <t>SAL9047S</t>
+  </si>
+  <si>
+    <t>DJSJUA4326262</t>
+  </si>
+  <si>
+    <t>COSS9M372149</t>
+  </si>
+  <si>
+    <t>SEFU2011144</t>
+  </si>
+  <si>
+    <t>REGULA</t>
+  </si>
+  <si>
+    <t>022N</t>
+  </si>
+  <si>
+    <t>STTN9M000492</t>
+  </si>
+  <si>
+    <t>CMCU4710557</t>
+  </si>
+  <si>
+    <t>DJSJUA4326279</t>
+  </si>
+  <si>
+    <t>COSS9M372158</t>
+  </si>
+  <si>
+    <t>http://www.crowley.com/what-we-do/shipping-and-logistics/liner-shipment-tracking/</t>
+  </si>
+  <si>
+    <t>Enter BOLNumber and Equipment Number in this order</t>
+  </si>
+  <si>
+    <t>Dock Receipt</t>
+  </si>
+  <si>
+    <t>There is no explicit field, but is under Container number</t>
+  </si>
+  <si>
+    <t>There is no explicit field, but is under Container type</t>
+  </si>
+  <si>
+    <t>BILLOFLADINGNUMBER</t>
+  </si>
+  <si>
+    <t>Shipment ID</t>
+  </si>
+  <si>
+    <t>Location is a part of the event</t>
+  </si>
+  <si>
+    <t>Delivered at Port Everglades, FL</t>
+  </si>
+  <si>
+    <t>Available for pickup at Port Everglades, FL</t>
+  </si>
+  <si>
+    <t>Vessel has Sailed at Port Au Prince, Haiti</t>
+  </si>
+  <si>
+    <t>Loaded onto Vessel at Port Au Prince, Haiti</t>
+  </si>
+  <si>
+    <t>Received Loaded for Sailing at Port Au Prince, Haiti</t>
+  </si>
+  <si>
+    <t>Departed Empty for Loading at Port Au Prince, Haiti</t>
+  </si>
+  <si>
+    <t>Equipment Assigned at Four Oaks, NC</t>
+  </si>
+  <si>
+    <t>Dispatched at Four Oaks, NC</t>
+  </si>
+  <si>
+    <t>Received at Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Dispatched at Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Received Loaded for Sailing at Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Confirmed for Voyage at Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Loaded onto Vessel at Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Vessel has Sailed at Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Available for pickup at San Juan, PR</t>
+  </si>
+  <si>
+    <t>Delivered at San Juan, PR</t>
+  </si>
+  <si>
+    <t>Departed Empty for Loading at St Thomas, VI</t>
+  </si>
+  <si>
+    <t>Received Loaded for Sailing at St Thomas, VI</t>
+  </si>
+  <si>
+    <t>Confirmed for Voyage at St Thomas, VI</t>
+  </si>
+  <si>
+    <t>Loaded onto Vessel at St Thomas, VI</t>
+  </si>
+  <si>
+    <t>Vessel has Sailed at St Thomas, VI</t>
+  </si>
+  <si>
+    <t>Cargo Available</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>MSC LAURENCE</t>
+  </si>
+  <si>
+    <t>MAERSK PITTSBURGH</t>
+  </si>
+  <si>
+    <t>919W</t>
+  </si>
+  <si>
+    <t>https://www.matson.com/shipment-tracking.html</t>
+  </si>
+  <si>
+    <t>MATU2097826</t>
+  </si>
+  <si>
+    <t>R. J. PFEIFFER</t>
+  </si>
+  <si>
+    <t>DJLAXA4303824</t>
+  </si>
+  <si>
+    <t>MATS8130337000</t>
+  </si>
+  <si>
+    <t>MATU2291111</t>
+  </si>
+  <si>
+    <t>442E</t>
+  </si>
+  <si>
+    <t>72L0078677</t>
+  </si>
+  <si>
+    <t>MATS6929147000</t>
+  </si>
+  <si>
+    <t>DJLAXA4303737</t>
+  </si>
+  <si>
+    <t>MATU2288885</t>
+  </si>
+  <si>
+    <t>MANUKAI</t>
+  </si>
+  <si>
+    <t>DJLAXA4341981</t>
+  </si>
+  <si>
+    <t>DJLAXA4303789</t>
+  </si>
+  <si>
+    <t>DATE &amp; TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTAINER TRACKING </t>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
+  <si>
+    <t>NET CONTAINER WEIGHT (LBS)</t>
+  </si>
+  <si>
+    <t>INGATE</t>
+  </si>
+  <si>
+    <t>LOAD TO VESSEL</t>
+  </si>
+  <si>
+    <t>DISCHARGE FROM VESSEL</t>
+  </si>
+  <si>
+    <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>FCIU3406462</t>
+  </si>
+  <si>
+    <t>FCIU3406463</t>
+  </si>
+  <si>
+    <t>FCIU3406464</t>
+  </si>
+  <si>
+    <t>FCIU3406465</t>
+  </si>
+  <si>
+    <t>FCIU3406466</t>
+  </si>
+  <si>
+    <t>FCIU3406467</t>
+  </si>
+  <si>
+    <t>FCIU3406468</t>
+  </si>
+  <si>
+    <t>FCIU3406469</t>
+  </si>
+  <si>
+    <t>FCIU3406470</t>
+  </si>
+  <si>
+    <t>FCIU3406471</t>
+  </si>
+  <si>
+    <t>https://www.anl.com.au/ebusiness/tracking</t>
+  </si>
+  <si>
+    <t>https://www.wanhai.com/views/cargoTrack/CargoTrack.xhtml?file_num=65580</t>
+  </si>
+  <si>
+    <t>WHSU2616748</t>
+  </si>
+  <si>
+    <t>WAN HAI 261</t>
+  </si>
+  <si>
+    <t>DJPENA4287021</t>
+  </si>
+  <si>
+    <t>0229A53301</t>
+  </si>
+  <si>
+    <t>WHLU4218476</t>
+  </si>
+  <si>
+    <t>WAN HAI 515</t>
+  </si>
+  <si>
+    <t>DJMAAA4284829</t>
+  </si>
+  <si>
+    <t>0229A51088</t>
+  </si>
+  <si>
+    <t>WHSU5511083</t>
+  </si>
+  <si>
+    <t>KOTA PAHLAWAN</t>
+  </si>
+  <si>
+    <t>E014</t>
+  </si>
+  <si>
+    <t>WHLC0259A21700</t>
+  </si>
+  <si>
+    <t>WHSU5511083-WHLC0259A21700-RET</t>
+  </si>
+  <si>
+    <t>WHLU5628011</t>
+  </si>
+  <si>
+    <t>DJSANA4288700</t>
+  </si>
+  <si>
+    <t>72L0077519</t>
+  </si>
+  <si>
+    <t>WHLU5439893</t>
+  </si>
+  <si>
+    <t>EXPRESS ROME</t>
+  </si>
+  <si>
+    <t>CHI1311096-CHI8983774</t>
+  </si>
+  <si>
+    <t>SZPV65434800</t>
+  </si>
+  <si>
+    <t>WHSU2633257</t>
+  </si>
+  <si>
+    <t>WAN HAI 316</t>
+  </si>
+  <si>
+    <t>S165</t>
+  </si>
+  <si>
+    <t>0229A54580</t>
+  </si>
+  <si>
+    <t>WHSU2487893</t>
+  </si>
+  <si>
+    <t>DJSINA4284759</t>
+  </si>
+  <si>
+    <t>0229A56233</t>
+  </si>
+  <si>
+    <t>WHSU4035059</t>
+  </si>
+  <si>
+    <t>DJMAAA4284836</t>
+  </si>
+  <si>
+    <t>WHLU4282789</t>
+  </si>
+  <si>
+    <t>DJMAAA4284830</t>
+  </si>
+  <si>
+    <t>Ctnr No.</t>
+  </si>
+  <si>
+    <t>Ctnr Date</t>
+  </si>
+  <si>
+    <t>Status Name</t>
+  </si>
+  <si>
+    <t>Ctnr Depot Name</t>
+  </si>
+  <si>
+    <t>Vessel Name</t>
+  </si>
+  <si>
+    <t>Book No.</t>
+  </si>
+  <si>
+    <t>EMPTY CONTAINER RELEASED TO SHIPPER FROM PIER/TERMINAL/OFF-DOCK DEPOT</t>
+  </si>
+  <si>
+    <t>OUTBOUND FULL CONTAINER GATE IN TO PEIR/TERMINAL(FCL)</t>
+  </si>
+  <si>
+    <t>LADEN CTNR LOADED ON BOARD VESSEL.(MOTHER VESSEL,FIXED SLOT CHARTER/JOINT VENTURE VESSEL)</t>
+  </si>
+  <si>
+    <t>LADEN OR EMPTY TRANSIT CONTAINER DISCHARGED FROM OWN OR FEEDER VESSEL AT PIER/TERMINAL AWAITING FOR</t>
+  </si>
+  <si>
+    <t>Full container(FCL) discharged from vessel OR GATE IN to Pier/Terminal</t>
+  </si>
+  <si>
+    <t>Full container withdrawn by consignee from Pier/Terminal</t>
+  </si>
+  <si>
+    <t>EMPTY CONTAINER DISCHARGED FROM VESSEL OR GATE IN TO PIER/TERMINAL/OFF-DOCK DEPOT (EMPTY AVAILABLE)</t>
+  </si>
+  <si>
+    <t>Enter Container Number, Click on "More Detail" on the first page and "Click to view cargo tracking history" on the second page</t>
+  </si>
+  <si>
+    <t>INBOUND/OUTBOUND LADEN CTNR MOVE FROM ONE PIER/TERMINAL TO ANOTHER ONE BY TRUCKER/RAIL.</t>
+  </si>
+  <si>
+    <t>DAMAGED EMPTY CONTAINER.EMPTY CONTAINER DISCHARGED FROM VESSEL OR GATE-IN TO PIER/TERMINAL/OFF-DOCK</t>
+  </si>
+  <si>
+    <t>Shipment Delivered</t>
+  </si>
+  <si>
+    <t>DLV</t>
+  </si>
+  <si>
+    <t>MNBU3304736</t>
+  </si>
+  <si>
+    <t>ZIM CHICAGO</t>
+  </si>
+  <si>
+    <t>952S</t>
+  </si>
+  <si>
+    <t>SUDU9SEA012110</t>
+  </si>
+  <si>
+    <t>MRKU0155520</t>
+  </si>
+  <si>
+    <t>MAERSK KLEVEN</t>
+  </si>
+  <si>
+    <t>6702665F</t>
+  </si>
+  <si>
+    <t>MAEU582369051</t>
+  </si>
+  <si>
+    <t>PONU1288242</t>
+  </si>
+  <si>
+    <t>6702668F</t>
+  </si>
+  <si>
+    <t>PONU1581040</t>
+  </si>
+  <si>
+    <t>6702667F</t>
+  </si>
+  <si>
+    <t>MRKU4147930</t>
+  </si>
+  <si>
+    <t>MAERSK CHICAGO</t>
+  </si>
+  <si>
+    <t>T190072479</t>
+  </si>
+  <si>
+    <t>MAEU582003720</t>
+  </si>
+  <si>
+    <t>PONU1826841</t>
+  </si>
+  <si>
+    <t>MSC BREMEN</t>
+  </si>
+  <si>
+    <t>922W</t>
+  </si>
+  <si>
+    <t>MAEU581995129</t>
+  </si>
+  <si>
+    <t>MRKU6443798</t>
+  </si>
+  <si>
+    <t>9075906114-01</t>
+  </si>
+  <si>
+    <t>MAEU582231406</t>
+  </si>
+  <si>
+    <t>MSKU8344306</t>
+  </si>
+  <si>
+    <t>DJPHXA4280956</t>
+  </si>
+  <si>
+    <t>MAEU583903133</t>
+  </si>
+  <si>
+    <t>MAEU4695834</t>
+  </si>
+  <si>
+    <t>SOVEREIGN MAERSK</t>
+  </si>
+  <si>
+    <t>DJMTYA4281416</t>
+  </si>
+  <si>
+    <t>MRKU0923491</t>
+  </si>
+  <si>
+    <t>LEO C</t>
+  </si>
+  <si>
+    <t>9075906332-01</t>
+  </si>
+  <si>
+    <t>MAEU581991578</t>
+  </si>
+  <si>
+    <t>https://www.maersk.com/tracking/</t>
+  </si>
+  <si>
+    <t>Container type size</t>
+  </si>
+  <si>
+    <t>Date and time</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Gate out</t>
+  </si>
+  <si>
+    <t>Gate out Empty</t>
+  </si>
+  <si>
+    <t>Gate in</t>
+  </si>
+  <si>
+    <t>Load on MAERSK KLEVEN</t>
+  </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>On rail</t>
+  </si>
+  <si>
+    <t>Off rail</t>
+  </si>
+  <si>
+    <t>Unloaded From Vessel</t>
+  </si>
+  <si>
+    <t>https://www.oocl.com/eng/ourservices/eservices/cargotracking/Pages/cargotracking.aspx?site=india&amp;lang=eng</t>
+  </si>
+  <si>
+    <t>OOLU4415954</t>
+  </si>
+  <si>
+    <t>COSCO PHILIPPINES</t>
+  </si>
+  <si>
+    <t>005W</t>
+  </si>
+  <si>
+    <t>9072905715-01</t>
+  </si>
+  <si>
+    <t>OOLU6936099</t>
+  </si>
+  <si>
+    <t>MONGOOSE HUNTER</t>
+  </si>
+  <si>
+    <t>001S</t>
+  </si>
+  <si>
+    <t>OOLU2619601820</t>
+  </si>
+  <si>
+    <t>OOLU7416147</t>
+  </si>
+  <si>
+    <t>CMA CGM LA TRAVIATA</t>
+  </si>
+  <si>
+    <t>0LB2</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>OOLU7931152</t>
+  </si>
+  <si>
+    <t>OOCL SOUTHAMPTON</t>
+  </si>
+  <si>
+    <t>DJLAXA4063958</t>
+  </si>
+  <si>
+    <t>OOLU8488012</t>
+  </si>
+  <si>
+    <t>DJLAXA4064371</t>
+  </si>
+  <si>
+    <t>OOLU7998773</t>
+  </si>
+  <si>
+    <t>OOCL HO CHI MINH CITY</t>
+  </si>
+  <si>
+    <t>DJCVGA4059646</t>
+  </si>
+  <si>
+    <t>OOLU2106182050</t>
+  </si>
+  <si>
+    <t>OOLU1464111</t>
+  </si>
+  <si>
+    <t>COSCO GENOA</t>
+  </si>
+  <si>
+    <t>DJIAHA4062580</t>
+  </si>
+  <si>
+    <t>OOLU8986503</t>
+  </si>
+  <si>
+    <t>CSCL BOHAI SEA</t>
+  </si>
+  <si>
+    <t>023E</t>
+  </si>
+  <si>
+    <t>9089905043-01</t>
+  </si>
+  <si>
+    <t>OOLU2618901260</t>
+  </si>
+  <si>
+    <t>OOLU7528070</t>
+  </si>
+  <si>
+    <t>OOCL BEIJING</t>
+  </si>
+  <si>
+    <t>DJCLEA4060902</t>
+  </si>
+  <si>
+    <t>OOLU6809197</t>
+  </si>
+  <si>
+    <t>COSCO FAITH</t>
+  </si>
+  <si>
+    <t>OOLU4102026920</t>
+  </si>
+  <si>
+    <t>OOCU7279536</t>
+  </si>
+  <si>
+    <t>OOLU4102029120</t>
+  </si>
+  <si>
+    <t>OOLU1673148</t>
+  </si>
+  <si>
+    <t>CMA CGM MARCO POLO</t>
+  </si>
+  <si>
+    <t>DJBRUA4058116</t>
+  </si>
+  <si>
+    <t>OOLU2618476530</t>
+  </si>
+  <si>
+    <t>OOLU9280996</t>
+  </si>
+  <si>
+    <t>COSCO DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>DJBNAA4063627</t>
+  </si>
+  <si>
+    <t>74K0217457</t>
+  </si>
+  <si>
+    <t>COSU6203915060</t>
+  </si>
+  <si>
+    <t>OOCU7320630</t>
+  </si>
+  <si>
+    <t>OOCL MIAMI</t>
+  </si>
+  <si>
+    <t>DJMEMA4063747</t>
+  </si>
+  <si>
+    <t>OOLU2106499050</t>
+  </si>
+  <si>
+    <t>Enter container number &amp; go to equipment activities</t>
+  </si>
+  <si>
+    <t>Container Size Type</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Container Picked Up </t>
+  </si>
+  <si>
+    <t>Container Received by Carrier</t>
+  </si>
+  <si>
+    <t>Loaded </t>
+  </si>
+  <si>
+    <t>Vessel Departed </t>
+  </si>
+  <si>
+    <t>Vessel Arrived</t>
+  </si>
+  <si>
+    <t>Carrier Released </t>
+  </si>
+  <si>
+    <t>Picked Up for Delivery </t>
+  </si>
+  <si>
+    <t>Container Returned to Carrier </t>
+  </si>
+  <si>
+    <t>Highway Arrival </t>
+  </si>
+  <si>
+    <t>Container Transferred </t>
+  </si>
+  <si>
+    <t>Highway Departure </t>
+  </si>
+  <si>
+    <t>Container Deramped </t>
+  </si>
+  <si>
+    <t>Ramped</t>
+  </si>
+  <si>
+    <t>Construction Placement </t>
+  </si>
+  <si>
+    <t>Released </t>
+  </si>
+  <si>
+    <t>Arrived for Pickup</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>Loaded on Vessel (If Mode= Vessel)</t>
+  </si>
+  <si>
+    <t>LOADED_ON_RAIL (If Mode=Railway)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1152,13 +1921,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1333,7 +2130,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1484,6 +2281,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1803,7 +2691,7 @@
   <dimension ref="A3:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2510,12 +3398,1508 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF21A5C-9CD9-4ACC-A93A-039FA8F210E1}">
+  <dimension ref="A3:K28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.90625" style="82" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="88.90625" style="82" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="82"/>
+    <col min="6" max="6" width="21.26953125" style="82" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="82" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="82"/>
+    <col min="9" max="9" width="34.26953125" style="82" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="82" customWidth="1"/>
+    <col min="11" max="11" width="23.90625" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="75"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="F8" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="F9" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="F10" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="F11" s="78" t="s">
+        <v>437</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="F12" s="78" t="s">
+        <v>438</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="F13" s="78" t="s">
+        <v>439</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="F14" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{B2841528-E05D-4B46-859D-4FA418C1FFAC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FD157C-59AA-4F98-9E93-CE9CD3DEC07E}">
+  <dimension ref="A3:K36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.90625" style="82" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="88.90625" style="82" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="82"/>
+    <col min="6" max="6" width="21.26953125" style="82" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="82" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="82"/>
+    <col min="9" max="9" width="15" style="82" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="82" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="75"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>492</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>493</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>494</v>
+      </c>
+      <c r="I5" s="84">
+        <v>7030000000</v>
+      </c>
+      <c r="J5" s="84">
+        <v>7030000000</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="F6" s="78" t="s">
+        <v>496</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="H6" s="78">
+        <v>923</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="F7" s="78" t="s">
+        <v>500</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="H7" s="78">
+        <v>923</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>501</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="F8" s="78" t="s">
+        <v>502</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="H8" s="78">
+        <v>923</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>503</v>
+      </c>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="F9" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="H9" s="78">
+        <v>918</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="K9" s="78" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="F10" s="78" t="s">
+        <v>508</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>509</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>510</v>
+      </c>
+      <c r="I10" s="84">
+        <v>7250000000</v>
+      </c>
+      <c r="J10" s="84">
+        <v>7250000000</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="F11" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>405</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>513</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="86"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="F12" s="78" t="s">
+        <v>515</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="H12" s="78">
+        <v>921</v>
+      </c>
+      <c r="I12" s="78" t="s">
+        <v>516</v>
+      </c>
+      <c r="J12" s="84">
+        <v>7110000000</v>
+      </c>
+      <c r="K12" s="78" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="86"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="F13" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="H13" s="78">
+        <v>918</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="J13" s="84">
+        <v>720000000</v>
+      </c>
+      <c r="K13" s="84">
+        <v>582000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="F14" s="78" t="s">
+        <v>521</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>510</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>523</v>
+      </c>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="77" t="s">
+        <v>530</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="70" t="s">
+        <v>532</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>536</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="70" t="s">
+        <v>534</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="67" t="s">
+        <v>535</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="70" t="s">
+        <v>529</v>
+      </c>
+      <c r="B28" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="57"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="67"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="57"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="70"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="70"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="70"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="70"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="73"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8AB74D93-A2A6-438D-A6DF-88EEA36AE427}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEEF040-172B-48D9-A95F-4061F319F2FA}">
+  <dimension ref="A3:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.90625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="88.90625" style="12" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="76"/>
+    <col min="6" max="6" width="21.26953125" style="76" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="76" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="76"/>
+    <col min="9" max="9" width="15" style="76" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="76" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="76" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="76"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>539</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>540</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>541</v>
+      </c>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82">
+        <v>4513826690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="F6" s="82" t="s">
+        <v>542</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>543</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>544</v>
+      </c>
+      <c r="I6" s="82">
+        <v>7950410395</v>
+      </c>
+      <c r="J6" s="82">
+        <v>7950410395</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="F7" s="82" t="s">
+        <v>546</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>547</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>548</v>
+      </c>
+      <c r="I7" s="82">
+        <v>7600485659</v>
+      </c>
+      <c r="J7" s="82">
+        <v>7600485659</v>
+      </c>
+      <c r="K7" s="82" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="F8" s="82" t="s">
+        <v>550</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>551</v>
+      </c>
+      <c r="H8" s="82">
+        <v>83</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>552</v>
+      </c>
+      <c r="J8" s="82">
+        <v>7075403354</v>
+      </c>
+      <c r="K8" s="82">
+        <v>2106468460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="F9" s="82" t="s">
+        <v>553</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>551</v>
+      </c>
+      <c r="H9" s="82">
+        <v>83</v>
+      </c>
+      <c r="I9" s="82" t="s">
+        <v>554</v>
+      </c>
+      <c r="J9" s="82">
+        <v>7075402026</v>
+      </c>
+      <c r="K9" s="82">
+        <v>2106312910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="F10" s="82" t="s">
+        <v>555</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="H10" s="82">
+        <v>32</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>557</v>
+      </c>
+      <c r="J10" s="82">
+        <v>7200352289</v>
+      </c>
+      <c r="K10" s="82" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="101"/>
+      <c r="C11" s="96"/>
+      <c r="F11" s="82" t="s">
+        <v>559</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>560</v>
+      </c>
+      <c r="H11" s="82">
+        <v>41</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>561</v>
+      </c>
+      <c r="J11" s="82">
+        <v>7221233658</v>
+      </c>
+      <c r="K11" s="82">
+        <v>4102059700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="97"/>
+      <c r="F12" s="102" t="s">
+        <v>562</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>563</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>564</v>
+      </c>
+      <c r="I12" s="82" t="s">
+        <v>565</v>
+      </c>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="38"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="F13" s="82" t="s">
+        <v>567</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>568</v>
+      </c>
+      <c r="H13" s="82">
+        <v>68</v>
+      </c>
+      <c r="I13" s="82" t="s">
+        <v>569</v>
+      </c>
+      <c r="J13" s="82">
+        <v>7170517996</v>
+      </c>
+      <c r="K13" s="82">
+        <v>6194875230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="F14" s="82" t="s">
+        <v>570</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>571</v>
+      </c>
+      <c r="H14" s="82">
+        <v>39</v>
+      </c>
+      <c r="I14" s="82">
+        <v>7300381126</v>
+      </c>
+      <c r="J14" s="82">
+        <v>7300381126</v>
+      </c>
+      <c r="K14" s="82" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="F15" s="82" t="s">
+        <v>573</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>571</v>
+      </c>
+      <c r="H15" s="82">
+        <v>39</v>
+      </c>
+      <c r="I15" s="82">
+        <v>7160207013</v>
+      </c>
+      <c r="J15" s="82">
+        <v>7160207013</v>
+      </c>
+      <c r="K15" s="82" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F16" s="82" t="s">
+        <v>575</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>576</v>
+      </c>
+      <c r="H16" s="82">
+        <v>21</v>
+      </c>
+      <c r="I16" s="82" t="s">
+        <v>577</v>
+      </c>
+      <c r="J16" s="82">
+        <v>7600482972</v>
+      </c>
+      <c r="K16" s="82" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F17" s="82" t="s">
+        <v>579</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>580</v>
+      </c>
+      <c r="H17" s="82">
+        <v>45</v>
+      </c>
+      <c r="I17" s="82" t="s">
+        <v>581</v>
+      </c>
+      <c r="J17" s="82" t="s">
+        <v>582</v>
+      </c>
+      <c r="K17" s="82" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F18" s="82" t="s">
+        <v>584</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>585</v>
+      </c>
+      <c r="H18" s="82">
+        <v>54</v>
+      </c>
+      <c r="I18" s="82" t="s">
+        <v>586</v>
+      </c>
+      <c r="J18" s="82">
+        <v>7321145893</v>
+      </c>
+      <c r="K18" s="82" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="77" t="s">
+        <v>591</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B22" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>608</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="B25" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="57" t="s">
+        <v>598</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="70" t="s">
+        <v>599</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="70" t="s">
+        <v>600</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="70" t="s">
+        <v>601</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="70" t="s">
+        <v>602</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="70" t="s">
+        <v>603</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="57" t="s">
+        <v>604</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="57" t="s">
+        <v>605</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="70"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="70"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="70"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="73"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{F37CCA5C-4954-4782-91E3-1BF86C0E5464}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51B81F8-691F-4739-B353-4F80BA037213}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3252,7 +5636,7 @@
   <dimension ref="A3:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:C37"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3778,462 +6162,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7499548-69F5-42FE-98CA-9140A88F890D}">
-  <dimension ref="A3:K38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.90625" customWidth="1"/>
-    <col min="2" max="2" width="42.7265625" customWidth="1"/>
-    <col min="3" max="3" width="88.90625" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="F6" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="F7" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="F8" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I8" s="48">
-        <v>7091050255</v>
-      </c>
-      <c r="J8" s="48">
-        <v>7091050255</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="F9" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="I9" s="48">
-        <v>7110242173</v>
-      </c>
-      <c r="J9" s="48">
-        <v>7110242173</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="F10" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="48">
-        <v>7110242175</v>
-      </c>
-      <c r="J10" s="48">
-        <v>7110242175</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="F11" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="48">
-        <v>918</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="F12" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="F13" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{49CE5348-C92F-428F-BE07-0BFD7E22F819}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4486FCDD-B07B-404F-A4BD-DB25CB2EEBAE}">
   <dimension ref="A3:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4714,12 +6647,463 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7499548-69F5-42FE-98CA-9140A88F890D}">
+  <dimension ref="A3:K38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.90625" customWidth="1"/>
+    <col min="2" max="2" width="42.7265625" customWidth="1"/>
+    <col min="3" max="3" width="88.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="F6" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="F7" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="F8" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="48">
+        <v>7091050255</v>
+      </c>
+      <c r="J8" s="48">
+        <v>7091050255</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="F9" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="I9" s="48">
+        <v>7110242173</v>
+      </c>
+      <c r="J9" s="48">
+        <v>7110242173</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="F10" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="48">
+        <v>7110242175</v>
+      </c>
+      <c r="J10" s="48">
+        <v>7110242175</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="F11" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="48">
+        <v>918</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="F12" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="F13" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="21"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{49CE5348-C92F-428F-BE07-0BFD7E22F819}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E08BEE-B153-4B25-8C9F-87F81BAA4847}">
   <dimension ref="A3:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C25"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5144,4 +7528,1271 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA638F8-8C6F-46E6-8135-1F5E73890097}">
+  <dimension ref="A3:K42"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.90625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="88.90625" style="48" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="48"/>
+    <col min="6" max="6" width="21.26953125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="48"/>
+    <col min="9" max="9" width="15" style="48" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="48" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="F6" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="J6" s="48">
+        <v>7340129916</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="I7" s="48">
+        <v>7340129892</v>
+      </c>
+      <c r="J7" s="48">
+        <v>7340129892</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>362</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>363</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>371</v>
+      </c>
+      <c r="J8" s="76">
+        <v>7340129915</v>
+      </c>
+      <c r="K8" s="76" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="68" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+    </row>
+    <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{BA2B9D90-92DE-4BA9-998A-8F26B64F7F6B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8AD8D7-C55F-468E-8712-4C1328D0FA46}">
+  <dimension ref="A3:K25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.90625" style="79" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="88.90625" style="79" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="79"/>
+    <col min="6" max="6" width="21.26953125" style="79" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="79" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="79"/>
+    <col min="9" max="9" width="15" style="79" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="79" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="79" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="75"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="H5" s="23">
+        <v>442</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="J5" s="23">
+        <v>7075446065</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="F6" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="F7" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="H7" s="23">
+        <v>442</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="J7" s="23">
+        <v>7075446067</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="F8" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="23">
+        <v>198</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="J8" s="23">
+        <v>7075451762</v>
+      </c>
+      <c r="K8" s="23">
+        <v>1630141000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="F9" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="H9" s="23">
+        <v>442</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="J9" s="23">
+        <v>7075446066</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+    </row>
+    <row r="12" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="83" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="70" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{DEE028BD-256B-47D9-9E48-592E34052DFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0DF9A3-602C-4A2A-B0E8-2F78B0EE92BB}">
+  <dimension ref="A3:K31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.26953125" style="82" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="88.90625" style="82" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="82"/>
+    <col min="6" max="6" width="21.26953125" style="82" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="82" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="82"/>
+    <col min="9" max="9" width="34.26953125" style="82" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="82" customWidth="1"/>
+    <col min="11" max="11" width="23.90625" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>443</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="H5" s="78">
+        <v>290</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>445</v>
+      </c>
+      <c r="J5" s="84">
+        <v>7720000000</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="F6" s="78" t="s">
+        <v>447</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="H6" s="78">
+        <v>54</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>449</v>
+      </c>
+      <c r="J6" s="84">
+        <v>713000000</v>
+      </c>
+      <c r="K6" s="78" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="F7" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>453</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="J7" s="84">
+        <v>1020000000</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="F8" s="78" t="s">
+        <v>456</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="78">
+        <v>11</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>457</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>458</v>
+      </c>
+      <c r="K8" s="84">
+        <v>260000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="F9" s="78" t="s">
+        <v>459</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>460</v>
+      </c>
+      <c r="H9" s="78">
+        <v>13</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>461</v>
+      </c>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="F10" s="78" t="s">
+        <v>463</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>464</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="I10" s="84">
+        <v>7710000000</v>
+      </c>
+      <c r="J10" s="84">
+        <v>7710000000</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="F11" s="78" t="s">
+        <v>467</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>464</v>
+      </c>
+      <c r="H11" s="78">
+        <v>165</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>468</v>
+      </c>
+      <c r="J11" s="84">
+        <v>7710000000</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="78"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="65" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="F13" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="H13" s="78">
+        <v>54</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>471</v>
+      </c>
+      <c r="J13" s="84">
+        <v>713000000</v>
+      </c>
+      <c r="K13" s="78" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="F14" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="H14" s="78">
+        <v>54</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>473</v>
+      </c>
+      <c r="J14" s="84">
+        <v>713000000</v>
+      </c>
+      <c r="K14" s="78" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="77" t="s">
+        <v>480</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="70" t="s">
+        <v>483</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="70" t="s">
+        <v>484</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="67" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="67" t="s">
+        <v>486</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="67" t="s">
+        <v>489</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="60"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{32087D2F-FE69-4BD7-ABDD-5CC8352DCF23}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>